--- a/2022/Symphony/Others/Emergency Format/Discontinue_Retaill__ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Discontinue_Retaill__ERMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Feb'22\ERMS update file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Discontinue_Retaill_list_ERMS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Status</t>
   </si>
@@ -45,28 +46,46 @@
     <t>Shop closed</t>
   </si>
   <si>
-    <t>RET-34783</t>
-  </si>
-  <si>
-    <t>New National Telecom</t>
-  </si>
-  <si>
-    <t>RET-39514</t>
-  </si>
-  <si>
-    <t>Maa -Babar Doa Electronics</t>
-  </si>
-  <si>
-    <t>DEL-0068</t>
-  </si>
-  <si>
-    <t>DEL-0073</t>
-  </si>
-  <si>
-    <t>New Sarker Electronics</t>
-  </si>
-  <si>
-    <t>Pacific Electronics</t>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>RET-07941</t>
+  </si>
+  <si>
+    <t>Rahul Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-14831</t>
+  </si>
+  <si>
+    <t>RGHST</t>
+  </si>
+  <si>
+    <t>Tashim Telecom</t>
+  </si>
+  <si>
+    <t>AETRSYDUF</t>
+  </si>
+  <si>
+    <t>RET-34135</t>
+  </si>
+  <si>
+    <t>Fahad Telecom</t>
+  </si>
+  <si>
+    <t>RET-38109</t>
+  </si>
+  <si>
+    <t>Milion Electronics</t>
+  </si>
+  <si>
+    <t>RET-40925</t>
+  </si>
+  <si>
+    <t>Orient Digital Studio</t>
   </si>
 </sst>
 </file>
@@ -927,13 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,16 +987,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -988,16 +1007,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -1007,28 +1026,64 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1047,12 +1102,12 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1078,13 +1133,30 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I12:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022/Symphony/Others/Emergency Format/Discontinue_Retaill__ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Discontinue_Retaill__ERMS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
@@ -52,40 +52,166 @@
     <t>DEL-0179</t>
   </si>
   <si>
-    <t>RET-07941</t>
-  </si>
-  <si>
-    <t>Rahul Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-14831</t>
-  </si>
-  <si>
     <t>RGHST</t>
   </si>
   <si>
-    <t>Tashim Telecom</t>
-  </si>
-  <si>
     <t>AETRSYDUF</t>
   </si>
   <si>
-    <t>RET-34135</t>
-  </si>
-  <si>
-    <t>Fahad Telecom</t>
-  </si>
-  <si>
-    <t>RET-38109</t>
-  </si>
-  <si>
-    <t>Milion Electronics</t>
-  </si>
-  <si>
-    <t>RET-40925</t>
-  </si>
-  <si>
-    <t>Orient Digital Studio</t>
+    <t>RET-07847</t>
+  </si>
+  <si>
+    <t>RET-07868</t>
+  </si>
+  <si>
+    <t>RET-08795</t>
+  </si>
+  <si>
+    <t>RET-08796</t>
+  </si>
+  <si>
+    <t>RET-08798</t>
+  </si>
+  <si>
+    <t>RET-08807</t>
+  </si>
+  <si>
+    <t>RET-08809</t>
+  </si>
+  <si>
+    <t>RET-12817</t>
+  </si>
+  <si>
+    <t>RET-12864</t>
+  </si>
+  <si>
+    <t>RET-20755</t>
+  </si>
+  <si>
+    <t>RET-26734</t>
+  </si>
+  <si>
+    <t>RET-27492</t>
+  </si>
+  <si>
+    <t>RET-31299</t>
+  </si>
+  <si>
+    <t>RET-32045</t>
+  </si>
+  <si>
+    <t>RET-33091</t>
+  </si>
+  <si>
+    <t>RET-34128</t>
+  </si>
+  <si>
+    <t>RET-34495</t>
+  </si>
+  <si>
+    <t>RET-35282</t>
+  </si>
+  <si>
+    <t>RET-36162</t>
+  </si>
+  <si>
+    <t>RET-36273</t>
+  </si>
+  <si>
+    <t>RET-40929</t>
+  </si>
+  <si>
+    <t>RET-40931</t>
+  </si>
+  <si>
+    <t>RET-40933</t>
+  </si>
+  <si>
+    <t>RET-41209</t>
+  </si>
+  <si>
+    <t>RET-41210</t>
+  </si>
+  <si>
+    <t>RET-41463</t>
+  </si>
+  <si>
+    <t>Rubi Mobile Palace</t>
+  </si>
+  <si>
+    <t>S.N Mobile Center</t>
+  </si>
+  <si>
+    <t>Sufia Electronics &amp; Telecom</t>
+  </si>
+  <si>
+    <t>Ratry Enterprise</t>
+  </si>
+  <si>
+    <t>Akhee Enterprise</t>
+  </si>
+  <si>
+    <t>Charghat Telecom</t>
+  </si>
+  <si>
+    <t>Azer Talecom</t>
+  </si>
+  <si>
+    <t>Sohel Store</t>
+  </si>
+  <si>
+    <t>Noyon Telecom</t>
+  </si>
+  <si>
+    <t>Rubel Telecom</t>
+  </si>
+  <si>
+    <t>AL-Huda Mobile</t>
+  </si>
+  <si>
+    <t>Sheuli Telecom</t>
+  </si>
+  <si>
+    <t>Kakoli Elections &amp; Telecom</t>
+  </si>
+  <si>
+    <t>Maa Telecom &amp; Servicing</t>
+  </si>
+  <si>
+    <t>Nabila Telecom</t>
+  </si>
+  <si>
+    <t>Bondho Electronics &amp; gift corner</t>
+  </si>
+  <si>
+    <t>Vai Vai Telecom</t>
+  </si>
+  <si>
+    <t>Ma Germents</t>
+  </si>
+  <si>
+    <t>Sahara Telecom</t>
+  </si>
+  <si>
+    <t>Mehedi Maruf Electronics</t>
+  </si>
+  <si>
+    <t>Mostak Telecom</t>
+  </si>
+  <si>
+    <t>Mili Telecom</t>
+  </si>
+  <si>
+    <t>Nahid Telecom</t>
+  </si>
+  <si>
+    <t>Padma-2</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand Shop</t>
+  </si>
+  <si>
+    <t>Anik Electronics &amp; Mobile Center</t>
   </si>
 </sst>
 </file>
@@ -610,9 +736,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +749,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -946,13 +1083,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,178 +1097,550 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,12 +1659,12 @@
   <sheetData>
     <row r="12" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="9:15" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
